--- a/data/pca/factorExposure/factorExposure_2010-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-25.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003728677238432298</v>
+        <v>0.01713315168862862</v>
       </c>
       <c r="C2">
-        <v>0.01685863567593309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001036579986314533</v>
+      </c>
+      <c r="D2">
+        <v>-0.006614633515105835</v>
+      </c>
+      <c r="E2">
+        <v>9.94008838370635e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009898408367859461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02728431250692959</v>
+        <v>0.09384061387248709</v>
       </c>
       <c r="C4">
-        <v>0.1240402744663351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01596109203197143</v>
+      </c>
+      <c r="D4">
+        <v>-0.08223393262554898</v>
+      </c>
+      <c r="E4">
+        <v>-0.02830162458689256</v>
+      </c>
+      <c r="F4">
+        <v>0.03099579444075534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03548365075404573</v>
+        <v>0.1566634623674688</v>
       </c>
       <c r="C6">
-        <v>0.1094080649793557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.0252953717607601</v>
+      </c>
+      <c r="D6">
+        <v>0.02365209695794219</v>
+      </c>
+      <c r="E6">
+        <v>-0.008469839741421133</v>
+      </c>
+      <c r="F6">
+        <v>0.0465359960796593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008452478029842968</v>
+        <v>0.06034065132751347</v>
       </c>
       <c r="C7">
-        <v>0.07295704620114558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0007650311174036154</v>
+      </c>
+      <c r="D7">
+        <v>-0.05180486976526906</v>
+      </c>
+      <c r="E7">
+        <v>-0.01042637310527119</v>
+      </c>
+      <c r="F7">
+        <v>0.04259297686208099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002124131315315773</v>
+        <v>0.05828180695520771</v>
       </c>
       <c r="C8">
-        <v>0.06370002465776006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0132987104035515</v>
+      </c>
+      <c r="D8">
+        <v>-0.03175671161057531</v>
+      </c>
+      <c r="E8">
+        <v>-0.01711780553142672</v>
+      </c>
+      <c r="F8">
+        <v>-0.02787769780986101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02311283835133169</v>
+        <v>0.0714910902297895</v>
       </c>
       <c r="C9">
-        <v>0.09838365067341878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01181507699654956</v>
+      </c>
+      <c r="D9">
+        <v>-0.08431094316506448</v>
+      </c>
+      <c r="E9">
+        <v>-0.02316475687367821</v>
+      </c>
+      <c r="F9">
+        <v>0.04670371918815034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.007333612749265413</v>
+        <v>0.09415396415766035</v>
       </c>
       <c r="C10">
-        <v>0.03083768752028912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01871086406116492</v>
+      </c>
+      <c r="D10">
+        <v>0.1709285518288914</v>
+      </c>
+      <c r="E10">
+        <v>0.03723738768618752</v>
+      </c>
+      <c r="F10">
+        <v>-0.0565207162663152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02711378882147344</v>
+        <v>0.08784785293632923</v>
       </c>
       <c r="C11">
-        <v>0.1073359580498546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01147904052194982</v>
+      </c>
+      <c r="D11">
+        <v>-0.1164050006358042</v>
+      </c>
+      <c r="E11">
+        <v>-0.04772106516340958</v>
+      </c>
+      <c r="F11">
+        <v>0.02052405231555594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02397853965778627</v>
+        <v>0.0925376141589913</v>
       </c>
       <c r="C12">
-        <v>0.1159483102305853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008903323153205661</v>
+      </c>
+      <c r="D12">
+        <v>-0.129229597761723</v>
+      </c>
+      <c r="E12">
+        <v>-0.04712275935145211</v>
+      </c>
+      <c r="F12">
+        <v>0.02345180159351202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.006845893450192536</v>
+        <v>0.04265034875670425</v>
       </c>
       <c r="C13">
-        <v>0.03842298921472236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003859882030296964</v>
+      </c>
+      <c r="D13">
+        <v>-0.04917891320220421</v>
+      </c>
+      <c r="E13">
+        <v>0.01053948529043133</v>
+      </c>
+      <c r="F13">
+        <v>0.002497664966616965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01501695773420292</v>
+        <v>0.02214736646784643</v>
       </c>
       <c r="C14">
-        <v>0.02570858655335752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01410739672847359</v>
+      </c>
+      <c r="D14">
+        <v>-0.03358146480751423</v>
+      </c>
+      <c r="E14">
+        <v>-0.01705392286189504</v>
+      </c>
+      <c r="F14">
+        <v>0.0134725762339592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01055151699384296</v>
+        <v>0.03151635494495016</v>
       </c>
       <c r="C15">
-        <v>0.02767735613903466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005198004506487661</v>
+      </c>
+      <c r="D15">
+        <v>-0.04498080872209354</v>
+      </c>
+      <c r="E15">
+        <v>-0.006835594721632483</v>
+      </c>
+      <c r="F15">
+        <v>0.02189666846381662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01616954206957578</v>
+        <v>0.07314572192808586</v>
       </c>
       <c r="C16">
-        <v>0.1121748777654009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002382598655610214</v>
+      </c>
+      <c r="D16">
+        <v>-0.1259994637559281</v>
+      </c>
+      <c r="E16">
+        <v>-0.06250729173182473</v>
+      </c>
+      <c r="F16">
+        <v>0.02321292790547697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02713715915175679</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003443207889712935</v>
+      </c>
+      <c r="D18">
+        <v>-0.02049597942283097</v>
+      </c>
+      <c r="E18">
+        <v>0.006909852147953401</v>
+      </c>
+      <c r="F18">
+        <v>-0.009128776015706205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01043350518404746</v>
+        <v>0.060077930409995</v>
       </c>
       <c r="C20">
-        <v>0.06860504676741497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0007909323907796676</v>
+      </c>
+      <c r="D20">
+        <v>-0.07681918309292442</v>
+      </c>
+      <c r="E20">
+        <v>-0.05610214334522558</v>
+      </c>
+      <c r="F20">
+        <v>0.02168902014691335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01184994429719345</v>
+        <v>0.03898773996027032</v>
       </c>
       <c r="C21">
-        <v>0.01865966753962792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.00651749340552082</v>
+      </c>
+      <c r="D21">
+        <v>-0.03680887895932455</v>
+      </c>
+      <c r="E21">
+        <v>0.005963043138156465</v>
+      </c>
+      <c r="F21">
+        <v>-0.02710632497958731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002779735551419125</v>
+        <v>0.04507231969570534</v>
       </c>
       <c r="C22">
-        <v>0.03234347524530848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0008315271460684698</v>
+      </c>
+      <c r="D22">
+        <v>-0.00217756632866465</v>
+      </c>
+      <c r="E22">
+        <v>-0.02881860236399893</v>
+      </c>
+      <c r="F22">
+        <v>-0.03262448334817061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002768780629191315</v>
+        <v>0.04505727989111526</v>
       </c>
       <c r="C23">
-        <v>0.0322732203853261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.000827294026809649</v>
+      </c>
+      <c r="D23">
+        <v>-0.002182506348229913</v>
+      </c>
+      <c r="E23">
+        <v>-0.02902048792350859</v>
+      </c>
+      <c r="F23">
+        <v>-0.0325890381049062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01671424018902798</v>
+        <v>0.07989950330264835</v>
       </c>
       <c r="C24">
-        <v>0.1117433127645517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.003134309113095918</v>
+      </c>
+      <c r="D24">
+        <v>-0.1199470916756516</v>
+      </c>
+      <c r="E24">
+        <v>-0.05074745788925322</v>
+      </c>
+      <c r="F24">
+        <v>0.02411282326661134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02171372540299342</v>
+        <v>0.08514073416216454</v>
       </c>
       <c r="C25">
-        <v>0.1175101254153358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005281297233304216</v>
+      </c>
+      <c r="D25">
+        <v>-0.1089158854288624</v>
+      </c>
+      <c r="E25">
+        <v>-0.03369336000258305</v>
+      </c>
+      <c r="F25">
+        <v>0.02547327492666214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0219576155028524</v>
+        <v>0.05632405264861481</v>
       </c>
       <c r="C26">
-        <v>0.04807155662722094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01459879018791354</v>
+      </c>
+      <c r="D26">
+        <v>-0.04178667769517251</v>
+      </c>
+      <c r="E26">
+        <v>-0.02787321584707541</v>
+      </c>
+      <c r="F26">
+        <v>-0.01102251813914595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.001533342200764966</v>
+        <v>0.1410726373438501</v>
       </c>
       <c r="C28">
-        <v>0.02468721529834762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01808528124399203</v>
+      </c>
+      <c r="D28">
+        <v>0.2644077387098039</v>
+      </c>
+      <c r="E28">
+        <v>0.06965515234963891</v>
+      </c>
+      <c r="F28">
+        <v>0.006946379287283133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01247988763984989</v>
+        <v>0.02646004064603152</v>
       </c>
       <c r="C29">
-        <v>0.03081137761387504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.00822830916858266</v>
+      </c>
+      <c r="D29">
+        <v>-0.03314949859491592</v>
+      </c>
+      <c r="E29">
+        <v>-0.01121287770772739</v>
+      </c>
+      <c r="F29">
+        <v>-0.01137572046303149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01489707829433784</v>
+        <v>0.06192088630855356</v>
       </c>
       <c r="C30">
-        <v>0.126423477818702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004658748721716988</v>
+      </c>
+      <c r="D30">
+        <v>-0.08666559498386264</v>
+      </c>
+      <c r="E30">
+        <v>-0.0205049364761902</v>
+      </c>
+      <c r="F30">
+        <v>0.08142992800684949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02151927731265187</v>
+        <v>0.04932278812625202</v>
       </c>
       <c r="C31">
-        <v>0.03672121276122905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01535984226348779</v>
+      </c>
+      <c r="D31">
+        <v>-0.02515179858800919</v>
+      </c>
+      <c r="E31">
+        <v>-0.02746604636862807</v>
+      </c>
+      <c r="F31">
+        <v>-0.002776802574854906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006492209496144733</v>
+        <v>0.04897518417064308</v>
       </c>
       <c r="C32">
-        <v>0.06130620952464614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001254845061700294</v>
+      </c>
+      <c r="D32">
+        <v>-0.03629062712224746</v>
+      </c>
+      <c r="E32">
+        <v>-0.03091663213278394</v>
+      </c>
+      <c r="F32">
+        <v>-0.0002924256847437104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02202584463823428</v>
+        <v>0.08979654827760983</v>
       </c>
       <c r="C33">
-        <v>0.1168198295285466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008780204879898839</v>
+      </c>
+      <c r="D33">
+        <v>-0.09721477581982191</v>
+      </c>
+      <c r="E33">
+        <v>-0.04466807573065954</v>
+      </c>
+      <c r="F33">
+        <v>0.03329595353101654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0239730367941717</v>
+        <v>0.0681074994864711</v>
       </c>
       <c r="C34">
-        <v>0.0990927321821396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01177501857540234</v>
+      </c>
+      <c r="D34">
+        <v>-0.105333626370084</v>
+      </c>
+      <c r="E34">
+        <v>-0.03519301330786989</v>
+      </c>
+      <c r="F34">
+        <v>0.03236356423071936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.00280761764309735</v>
+        <v>0.02420844195946139</v>
       </c>
       <c r="C35">
-        <v>0.01297798830061724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002389692721928795</v>
+      </c>
+      <c r="D35">
+        <v>-0.01270250385095631</v>
+      </c>
+      <c r="E35">
+        <v>-0.01191228512269249</v>
+      </c>
+      <c r="F35">
+        <v>0.001292202930106601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01023440374774363</v>
+        <v>0.02537497498833519</v>
       </c>
       <c r="C36">
-        <v>0.02947226482879013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007346248098703154</v>
+      </c>
+      <c r="D36">
+        <v>-0.03939742755986082</v>
+      </c>
+      <c r="E36">
+        <v>-0.01553997370655259</v>
+      </c>
+      <c r="F36">
+        <v>0.01413914270814126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006272996502082517</v>
+        <v>0.001532790895280532</v>
       </c>
       <c r="C38">
-        <v>0.005393676403941583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002431031136257382</v>
+      </c>
+      <c r="D38">
+        <v>-0.0005500853394609332</v>
+      </c>
+      <c r="E38">
+        <v>-0.001108324981253344</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005323213301303794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.0381355066855867</v>
+        <v>0.1069916644582866</v>
       </c>
       <c r="C39">
-        <v>0.172280426848952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01699543015928714</v>
+      </c>
+      <c r="D39">
+        <v>-0.1528115717264226</v>
+      </c>
+      <c r="E39">
+        <v>-0.05991452699277287</v>
+      </c>
+      <c r="F39">
+        <v>0.02885353597989063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008311530965589019</v>
+        <v>0.0395668255941321</v>
       </c>
       <c r="C40">
-        <v>0.01336362365115694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007521396020984204</v>
+      </c>
+      <c r="D40">
+        <v>-0.0319648570636173</v>
+      </c>
+      <c r="E40">
+        <v>-0.002859047595119524</v>
+      </c>
+      <c r="F40">
+        <v>-0.01770332815880703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01154446041802766</v>
+        <v>0.0265246854231726</v>
       </c>
       <c r="C41">
-        <v>0.02266640249764618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006560111258396097</v>
+      </c>
+      <c r="D41">
+        <v>-0.01146200750602932</v>
+      </c>
+      <c r="E41">
+        <v>-0.01272042163348401</v>
+      </c>
+      <c r="F41">
+        <v>-0.006943808375063359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01153528496913753</v>
+        <v>0.03982402555710713</v>
       </c>
       <c r="C43">
-        <v>0.02512548462740536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006761402515903818</v>
+      </c>
+      <c r="D43">
+        <v>-0.02080962891344679</v>
+      </c>
+      <c r="E43">
+        <v>-0.02513608012788088</v>
+      </c>
+      <c r="F43">
+        <v>-0.01240885950719663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03041648263444229</v>
+        <v>0.0772816122240364</v>
       </c>
       <c r="C44">
-        <v>0.1350400529848398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02112778969937187</v>
+      </c>
+      <c r="D44">
+        <v>-0.09759066344158657</v>
+      </c>
+      <c r="E44">
+        <v>-0.06616135410312604</v>
+      </c>
+      <c r="F44">
+        <v>0.1507087060740696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005783666740036724</v>
+        <v>0.02378292557213128</v>
       </c>
       <c r="C46">
-        <v>0.008619344186022579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003746166757708851</v>
+      </c>
+      <c r="D46">
+        <v>-0.01296537229496362</v>
+      </c>
+      <c r="E46">
+        <v>-0.02208492112250309</v>
+      </c>
+      <c r="F46">
+        <v>-0.003159761980152994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01233474067178297</v>
+        <v>0.05070212350801413</v>
       </c>
       <c r="C47">
-        <v>0.04251144026783626</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003645449145341324</v>
+      </c>
+      <c r="D47">
+        <v>-0.01250559098183569</v>
+      </c>
+      <c r="E47">
+        <v>-0.02301677565513406</v>
+      </c>
+      <c r="F47">
+        <v>-0.03345490417094254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01135022232644262</v>
+        <v>0.04854619186778251</v>
       </c>
       <c r="C48">
-        <v>0.04818422760323684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.00264181879901825</v>
+      </c>
+      <c r="D48">
+        <v>-0.05076423588908333</v>
+      </c>
+      <c r="E48">
+        <v>0.00628332930467721</v>
+      </c>
+      <c r="F48">
+        <v>0.008535988126656339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03396531046768922</v>
+        <v>0.2022867413796151</v>
       </c>
       <c r="C49">
-        <v>0.2053100656264675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01873723032258147</v>
+      </c>
+      <c r="D49">
+        <v>0.01226710183516674</v>
+      </c>
+      <c r="E49">
+        <v>-0.03058606059824923</v>
+      </c>
+      <c r="F49">
+        <v>0.03793985933100451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01783297926019588</v>
+        <v>0.04952531206110099</v>
       </c>
       <c r="C50">
-        <v>0.04362434341859662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01139147090797337</v>
+      </c>
+      <c r="D50">
+        <v>-0.02433228448136099</v>
+      </c>
+      <c r="E50">
+        <v>-0.0297847654849871</v>
+      </c>
+      <c r="F50">
+        <v>0.007677860337797886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0005223402233113316</v>
+        <v>0.001402198859113765</v>
       </c>
       <c r="C51">
-        <v>0.004226222512641148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0003643220262250027</v>
+      </c>
+      <c r="D51">
+        <v>0.001625071816404927</v>
+      </c>
+      <c r="E51">
+        <v>8.009504499046681e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002743610831347288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02786410477286156</v>
+        <v>0.1463966939049927</v>
       </c>
       <c r="C52">
-        <v>0.1461464742345209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01500278706586795</v>
+      </c>
+      <c r="D52">
+        <v>-0.04674874444514997</v>
+      </c>
+      <c r="E52">
+        <v>-0.02090029288007282</v>
+      </c>
+      <c r="F52">
+        <v>0.0449041126640126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.0257284066950005</v>
+        <v>0.1740741265387689</v>
       </c>
       <c r="C53">
-        <v>0.1590218677455026</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01828550975533729</v>
+      </c>
+      <c r="D53">
+        <v>-0.005583293076526849</v>
+      </c>
+      <c r="E53">
+        <v>-0.03164063979332853</v>
+      </c>
+      <c r="F53">
+        <v>0.07642862912675383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01467803673278781</v>
+        <v>0.02113268292586503</v>
       </c>
       <c r="C54">
-        <v>0.04878030050396082</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0125130571281627</v>
+      </c>
+      <c r="D54">
+        <v>-0.03270863895490048</v>
+      </c>
+      <c r="E54">
+        <v>-0.01670802545858018</v>
+      </c>
+      <c r="F54">
+        <v>-0.00380386720033506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02301908830283547</v>
+        <v>0.1143000453384563</v>
       </c>
       <c r="C55">
-        <v>0.08845892351336693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01633463590659836</v>
+      </c>
+      <c r="D55">
+        <v>-0.009470452955629555</v>
+      </c>
+      <c r="E55">
+        <v>-0.02820846665776311</v>
+      </c>
+      <c r="F55">
+        <v>0.04948354302080028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02918757105585214</v>
+        <v>0.1785246634968752</v>
       </c>
       <c r="C56">
-        <v>0.1611682345933147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01559832436939449</v>
+      </c>
+      <c r="D56">
+        <v>-0.002121543153530877</v>
+      </c>
+      <c r="E56">
+        <v>-0.03690747256673339</v>
+      </c>
+      <c r="F56">
+        <v>0.05542734305615589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009884036676651366</v>
+        <v>0.04642630738309306</v>
       </c>
       <c r="C58">
-        <v>0.04696884097992569</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001264981156770662</v>
+      </c>
+      <c r="D58">
+        <v>-0.06717551855333544</v>
+      </c>
+      <c r="E58">
+        <v>-0.02771182281923385</v>
+      </c>
+      <c r="F58">
+        <v>-0.03940419936493543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009641561829976076</v>
+        <v>0.1697757009232498</v>
       </c>
       <c r="C59">
-        <v>0.08150171237672511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01880257556234396</v>
+      </c>
+      <c r="D59">
+        <v>0.2215419068681205</v>
+      </c>
+      <c r="E59">
+        <v>0.04574279189070751</v>
+      </c>
+      <c r="F59">
+        <v>-0.03311037995941833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02244744473031423</v>
+        <v>0.2340340540751483</v>
       </c>
       <c r="C60">
-        <v>0.2795130988112277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002960930931711464</v>
+      </c>
+      <c r="D60">
+        <v>-0.03971142571970908</v>
+      </c>
+      <c r="E60">
+        <v>-0.01103761969275581</v>
+      </c>
+      <c r="F60">
+        <v>-0.001573046045253198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02796155135984893</v>
+        <v>0.08311290375669139</v>
       </c>
       <c r="C61">
-        <v>0.1310635492820614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01273184484640288</v>
+      </c>
+      <c r="D61">
+        <v>-0.1162853995259079</v>
+      </c>
+      <c r="E61">
+        <v>-0.03988873722693011</v>
+      </c>
+      <c r="F61">
+        <v>0.01252029806743386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03284396988365792</v>
+        <v>0.170364311630019</v>
       </c>
       <c r="C62">
-        <v>0.1691187962176901</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01932143685081747</v>
+      </c>
+      <c r="D62">
+        <v>-0.007401837646523307</v>
+      </c>
+      <c r="E62">
+        <v>-0.03586742887344797</v>
+      </c>
+      <c r="F62">
+        <v>0.03748408133235988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01086172674109077</v>
+        <v>0.04333056428036849</v>
       </c>
       <c r="C63">
-        <v>0.0564149693334746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002406883192622448</v>
+      </c>
+      <c r="D63">
+        <v>-0.05801842088994655</v>
+      </c>
+      <c r="E63">
+        <v>-0.02018200746231066</v>
+      </c>
+      <c r="F63">
+        <v>0.00430925269157426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02217004505905116</v>
+        <v>0.1099503469824746</v>
       </c>
       <c r="C64">
-        <v>0.09903797496762229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01176780151013845</v>
+      </c>
+      <c r="D64">
+        <v>-0.04154468509766031</v>
+      </c>
+      <c r="E64">
+        <v>-0.02244150591483048</v>
+      </c>
+      <c r="F64">
+        <v>0.02599238400225853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0372859937916157</v>
+        <v>0.1464146768060583</v>
       </c>
       <c r="C65">
-        <v>0.1093447675233708</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0320369711930833</v>
+      </c>
+      <c r="D65">
+        <v>0.04183893375919896</v>
+      </c>
+      <c r="E65">
+        <v>-0.002734578731210311</v>
+      </c>
+      <c r="F65">
+        <v>0.03825263620147942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.036001201434854</v>
+        <v>0.1278044022439596</v>
       </c>
       <c r="C66">
-        <v>0.2040892301042832</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01495585468087596</v>
+      </c>
+      <c r="D66">
+        <v>-0.1414534943537556</v>
+      </c>
+      <c r="E66">
+        <v>-0.06809224746355461</v>
+      </c>
+      <c r="F66">
+        <v>0.03171407012756641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0144799424283369</v>
+        <v>0.06319319014835423</v>
       </c>
       <c r="C67">
-        <v>0.06728457453811955</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003222685880349699</v>
+      </c>
+      <c r="D67">
+        <v>-0.05529941209963623</v>
+      </c>
+      <c r="E67">
+        <v>-0.01820495682831832</v>
+      </c>
+      <c r="F67">
+        <v>-0.03249185080244833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01173099618720834</v>
+        <v>0.1160248204495357</v>
       </c>
       <c r="C68">
-        <v>0.02640607830814971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02801108475147713</v>
+      </c>
+      <c r="D68">
+        <v>0.2595460548136879</v>
+      </c>
+      <c r="E68">
+        <v>0.08754746076554941</v>
+      </c>
+      <c r="F68">
+        <v>0.004649578844429636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005968094923801462</v>
+        <v>0.03947024367885738</v>
       </c>
       <c r="C69">
-        <v>0.03546002825012756</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001240842749838507</v>
+      </c>
+      <c r="D69">
+        <v>-0.007505745952410701</v>
+      </c>
+      <c r="E69">
+        <v>-0.02334985511492386</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006752817762009116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002337265993091304</v>
+        <v>0.06319081485541658</v>
       </c>
       <c r="C70">
-        <v>0.03512178725749177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02843584999234324</v>
+      </c>
+      <c r="D70">
+        <v>-0.02750140912450718</v>
+      </c>
+      <c r="E70">
+        <v>0.04216836852005992</v>
+      </c>
+      <c r="F70">
+        <v>-0.1872658246507291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01612243648728227</v>
+        <v>0.1351249087975561</v>
       </c>
       <c r="C71">
-        <v>0.02907139828310999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03286079445017959</v>
+      </c>
+      <c r="D71">
+        <v>0.2736297789321933</v>
+      </c>
+      <c r="E71">
+        <v>0.09732667417695323</v>
+      </c>
+      <c r="F71">
+        <v>0.01110007494288497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03335504339844793</v>
+        <v>0.1411090344000563</v>
       </c>
       <c r="C72">
-        <v>0.1176297289295476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.0256339870960355</v>
+      </c>
+      <c r="D72">
+        <v>-0.001070605990804131</v>
+      </c>
+      <c r="E72">
+        <v>-0.04039032549084529</v>
+      </c>
+      <c r="F72">
+        <v>0.03660395910735893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03182017453232531</v>
+        <v>0.2009945404120635</v>
       </c>
       <c r="C73">
-        <v>0.2098681974870155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01298490171897262</v>
+      </c>
+      <c r="D73">
+        <v>-0.0134050809350231</v>
+      </c>
+      <c r="E73">
+        <v>-0.06399690501280898</v>
+      </c>
+      <c r="F73">
+        <v>0.03943588096556409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01814662689669303</v>
+        <v>0.09482037204492746</v>
       </c>
       <c r="C74">
-        <v>0.1165691157520001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01304858089116058</v>
+      </c>
+      <c r="D74">
+        <v>-0.01803349040281849</v>
+      </c>
+      <c r="E74">
+        <v>-0.04475099860102548</v>
+      </c>
+      <c r="F74">
+        <v>0.05770923508309123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03821864999887677</v>
+        <v>0.1291027875298547</v>
       </c>
       <c r="C75">
-        <v>0.1369657407985216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02753205523047457</v>
+      </c>
+      <c r="D75">
+        <v>-0.03031722572783645</v>
+      </c>
+      <c r="E75">
+        <v>-0.05913624785456786</v>
+      </c>
+      <c r="F75">
+        <v>0.02000844030523781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004244665965551066</v>
+        <v>0.001346487952469061</v>
       </c>
       <c r="C76">
-        <v>0.004958000549431733</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003587071616906747</v>
+      </c>
+      <c r="D76">
+        <v>0.0009862996877926054</v>
+      </c>
+      <c r="E76">
+        <v>-0.0003731173422299573</v>
+      </c>
+      <c r="F76">
+        <v>0.001800312457805261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02145364716858946</v>
+        <v>0.08106980720445592</v>
       </c>
       <c r="C77">
-        <v>0.1065470285320595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008458767876282492</v>
+      </c>
+      <c r="D77">
+        <v>-0.118612309258696</v>
+      </c>
+      <c r="E77">
+        <v>-0.04082527287210289</v>
+      </c>
+      <c r="F77">
+        <v>0.02670929042881103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04888399077518329</v>
+        <v>0.1015815628716323</v>
       </c>
       <c r="C78">
-        <v>0.1231763807994002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03972084162039568</v>
+      </c>
+      <c r="D78">
+        <v>-0.1162297911137103</v>
+      </c>
+      <c r="E78">
+        <v>-0.07877521768257416</v>
+      </c>
+      <c r="F78">
+        <v>0.04454664563014931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03245667071670485</v>
+        <v>0.1647449756818218</v>
       </c>
       <c r="C79">
-        <v>0.1471953182394724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02174881731211534</v>
+      </c>
+      <c r="D79">
+        <v>-0.01677509768726925</v>
+      </c>
+      <c r="E79">
+        <v>-0.04769084443500816</v>
+      </c>
+      <c r="F79">
+        <v>0.01487211588449808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.005261100040970773</v>
+        <v>0.08157065381063121</v>
       </c>
       <c r="C80">
-        <v>0.09664689594210761</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0004590670027611634</v>
+      </c>
+      <c r="D80">
+        <v>-0.05703971208530345</v>
+      </c>
+      <c r="E80">
+        <v>-0.03571384762733379</v>
+      </c>
+      <c r="F80">
+        <v>-0.02577145449152729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.0397474450597171</v>
+        <v>0.1229800781325052</v>
       </c>
       <c r="C81">
-        <v>0.1533878418728534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03145658225074779</v>
+      </c>
+      <c r="D81">
+        <v>-0.01550210386947965</v>
+      </c>
+      <c r="E81">
+        <v>-0.05933802607286098</v>
+      </c>
+      <c r="F81">
+        <v>0.01894923086356274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03271839463912655</v>
+        <v>0.1653675282191469</v>
       </c>
       <c r="C82">
-        <v>0.1711353194746214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02402690209117295</v>
+      </c>
+      <c r="D82">
+        <v>-0.004967509024026489</v>
+      </c>
+      <c r="E82">
+        <v>-0.02860706826747816</v>
+      </c>
+      <c r="F82">
+        <v>0.08133491573488144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01713367688266134</v>
+        <v>0.06147824113189383</v>
       </c>
       <c r="C83">
-        <v>0.07664878297350977</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0033410441106479</v>
+      </c>
+      <c r="D83">
+        <v>-0.04974306440818798</v>
+      </c>
+      <c r="E83">
+        <v>-0.006030125952207963</v>
+      </c>
+      <c r="F83">
+        <v>-0.03230273266127168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02403883209366723</v>
+        <v>0.05827802727163647</v>
       </c>
       <c r="C84">
-        <v>0.07229897930830355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01100383950453821</v>
+      </c>
+      <c r="D84">
+        <v>-0.06566242499474891</v>
+      </c>
+      <c r="E84">
+        <v>-0.007218458658273528</v>
+      </c>
+      <c r="F84">
+        <v>0.00610456789234244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03475388376524677</v>
+        <v>0.1380579212686521</v>
       </c>
       <c r="C85">
-        <v>0.1208000392064447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02736084146555555</v>
+      </c>
+      <c r="D85">
+        <v>-0.01074603228241555</v>
+      </c>
+      <c r="E85">
+        <v>-0.039541199571071</v>
+      </c>
+      <c r="F85">
+        <v>0.04759559311025491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.008607811426128121</v>
+        <v>0.0965197140552882</v>
       </c>
       <c r="C86">
-        <v>0.1168800044598225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006713100586240645</v>
+      </c>
+      <c r="D86">
+        <v>-0.04077530795698964</v>
+      </c>
+      <c r="E86">
+        <v>-0.2112572483276165</v>
+      </c>
+      <c r="F86">
+        <v>-0.9084797104302176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03801947500831818</v>
+        <v>0.09613105143481983</v>
       </c>
       <c r="C87">
-        <v>0.1122679498498282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02148319363974166</v>
+      </c>
+      <c r="D87">
+        <v>-0.09274754759301246</v>
+      </c>
+      <c r="E87">
+        <v>0.05282203451519015</v>
+      </c>
+      <c r="F87">
+        <v>0.05113267909124233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01147102958605552</v>
+        <v>0.06099846514317065</v>
       </c>
       <c r="C88">
-        <v>0.05877437507716643</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002589517062566333</v>
+      </c>
+      <c r="D88">
+        <v>-0.05013316421350614</v>
+      </c>
+      <c r="E88">
+        <v>-0.02518456183251311</v>
+      </c>
+      <c r="F88">
+        <v>0.01364768785531393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.001195393253660015</v>
+        <v>0.1331218084231953</v>
       </c>
       <c r="C89">
-        <v>0.04981189498929351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01023352846452041</v>
+      </c>
+      <c r="D89">
+        <v>0.2511168273226517</v>
+      </c>
+      <c r="E89">
+        <v>0.09075210212906328</v>
+      </c>
+      <c r="F89">
+        <v>-0.006224741076266157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01648468368523192</v>
+        <v>0.1476272766782044</v>
       </c>
       <c r="C90">
-        <v>0.033404669834739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02860109060067485</v>
+      </c>
+      <c r="D90">
+        <v>0.2662775144136394</v>
+      </c>
+      <c r="E90">
+        <v>0.111799677470472</v>
+      </c>
+      <c r="F90">
+        <v>-0.003817558175092592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01977845468871497</v>
+        <v>0.1195876807278326</v>
       </c>
       <c r="C91">
-        <v>0.09236333437697758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01805398911978173</v>
+      </c>
+      <c r="D91">
+        <v>0.01148006743938703</v>
+      </c>
+      <c r="E91">
+        <v>-0.05729939998252156</v>
+      </c>
+      <c r="F91">
+        <v>-0.0006882532125427295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0002018025134919185</v>
+        <v>0.1466205947573233</v>
       </c>
       <c r="C92">
-        <v>0.04544903826641537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02075788213800051</v>
+      </c>
+      <c r="D92">
+        <v>0.2909058646221808</v>
+      </c>
+      <c r="E92">
+        <v>0.1022630414309603</v>
+      </c>
+      <c r="F92">
+        <v>-0.01524807095089122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01089857420334947</v>
+        <v>0.1506570457509759</v>
       </c>
       <c r="C93">
-        <v>0.03675826406298494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02470416357184132</v>
+      </c>
+      <c r="D93">
+        <v>0.2662749396332535</v>
+      </c>
+      <c r="E93">
+        <v>0.07853996372438392</v>
+      </c>
+      <c r="F93">
+        <v>0.002756809036134154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03709108366519926</v>
+        <v>0.1320434312451217</v>
       </c>
       <c r="C94">
-        <v>0.162168484332097</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02447864237212652</v>
+      </c>
+      <c r="D94">
+        <v>-0.04360711757537347</v>
+      </c>
+      <c r="E94">
+        <v>-0.05891400737051591</v>
+      </c>
+      <c r="F94">
+        <v>0.03715282716080174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02472678204898294</v>
+        <v>0.1257605228112796</v>
       </c>
       <c r="C95">
-        <v>0.1384488514455492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.00459611589334889</v>
+      </c>
+      <c r="D95">
+        <v>-0.09209701466484345</v>
+      </c>
+      <c r="E95">
+        <v>-0.04742661121884463</v>
+      </c>
+      <c r="F95">
+        <v>-0.009776207590769456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9798212428605478</v>
+        <v>0.1036144737166176</v>
       </c>
       <c r="C96">
-        <v>0.1799615425273875</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.988127629406822</v>
+      </c>
+      <c r="D96">
+        <v>0.03830388793568226</v>
+      </c>
+      <c r="E96">
+        <v>-0.0566976814603583</v>
+      </c>
+      <c r="F96">
+        <v>0.04332528724610459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.002373361391583649</v>
+        <v>0.1909699174071012</v>
       </c>
       <c r="C97">
-        <v>0.1774842960678886</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008711455347441445</v>
+      </c>
+      <c r="D97">
+        <v>0.01704227402395422</v>
+      </c>
+      <c r="E97">
+        <v>-0.01446975878855789</v>
+      </c>
+      <c r="F97">
+        <v>-0.09404374924882127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02295969728529822</v>
+        <v>0.2059734274902891</v>
       </c>
       <c r="C98">
-        <v>0.1978185035465669</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007445538901632957</v>
+      </c>
+      <c r="D98">
+        <v>-0.006947659662800938</v>
+      </c>
+      <c r="E98">
+        <v>0.08672069132820262</v>
+      </c>
+      <c r="F98">
+        <v>-0.09497077222396824</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003402537395829753</v>
+        <v>0.05579590645758022</v>
       </c>
       <c r="C99">
-        <v>0.05693370770782036</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004379889999010823</v>
+      </c>
+      <c r="D99">
+        <v>-0.03885546866754682</v>
+      </c>
+      <c r="E99">
+        <v>-0.02384061077972604</v>
+      </c>
+      <c r="F99">
+        <v>0.0009739259700454806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004871174732930421</v>
+        <v>0.1272321528166561</v>
       </c>
       <c r="C100">
-        <v>0.1283557370015124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05272496295666823</v>
+      </c>
+      <c r="D100">
+        <v>-0.3498954314239581</v>
+      </c>
+      <c r="E100">
+        <v>0.8868007461333405</v>
+      </c>
+      <c r="F100">
+        <v>-0.1361712615402898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01250462927097772</v>
+        <v>0.02638011401924967</v>
       </c>
       <c r="C101">
-        <v>0.03077708121977755</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008235977748323534</v>
+      </c>
+      <c r="D101">
+        <v>-0.03285709769240375</v>
+      </c>
+      <c r="E101">
+        <v>-0.0106513569154789</v>
+      </c>
+      <c r="F101">
+        <v>-0.01261727974230687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
